--- a/uruguai/tabela_uy.xlsx
+++ b/uruguai/tabela_uy.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliveim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxwelco/Documents/aws_paper/uruguai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B9E156-41C0-4335-B4F4-8EAF951C00EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1669E787-933D-1141-8137-AB889F5C0679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56B76B4B-98C7-4E43-8B78-165795827F1C}"/>
+    <workbookView xWindow="5600" yWindow="880" windowWidth="26560" windowHeight="18980" xr2:uid="{56B76B4B-98C7-4E43-8B78-165795827F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$134</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
   <si>
     <t>year</t>
   </si>
@@ -139,9 +132,6 @@
     <t>Pyrazosulfuron-ethyl</t>
   </si>
   <si>
-    <t>Foramsulfuron + Iodosulfuron-methyl-Na</t>
-  </si>
-  <si>
     <t>2,4-DB</t>
   </si>
   <si>
@@ -185,15 +175,37 @@
   </si>
   <si>
     <t>Saflufenacil</t>
+  </si>
+  <si>
+    <t>Foramsulfuron + Iodosulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Iodosulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -228,15 +240,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -257,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,20 +571,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6C741-9434-48E0-914C-E707827456CE}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +597,11 @@
       <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -593,8 +614,11 @@
       <c r="D2" s="3">
         <v>0.33444775974326973</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -607,8 +631,11 @@
       <c r="D3" s="3">
         <v>0.16818581954947037</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -621,8 +648,11 @@
       <c r="D4" s="3">
         <v>8.9538034274312672E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1995</v>
       </c>
@@ -635,8 +665,11 @@
       <c r="D5" s="3">
         <v>6.2697096105588171E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1995</v>
       </c>
@@ -649,8 +682,11 @@
       <c r="D6" s="3">
         <v>4.3095629902800733E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1995</v>
       </c>
@@ -660,11 +696,14 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>3.2721844061414346E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1995</v>
       </c>
@@ -677,8 +716,11 @@
       <c r="D8" s="3">
         <v>2.8553522010767666E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1995</v>
       </c>
@@ -691,8 +733,11 @@
       <c r="D9" s="3">
         <v>1.9046222537200577E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1995</v>
       </c>
@@ -705,8 +750,11 @@
       <c r="D10" s="3">
         <v>1.8929964233719634E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1995</v>
       </c>
@@ -719,8 +767,11 @@
       <c r="D11" s="3">
         <v>1.7954709360066694E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1995</v>
       </c>
@@ -733,8 +784,11 @@
       <c r="D12" s="3">
         <v>1.337178539965477E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1995</v>
       </c>
@@ -747,8 +801,11 @@
       <c r="D13" s="3">
         <v>1.3055216619095356E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1995</v>
       </c>
@@ -761,8 +818,11 @@
       <c r="D14" s="3">
         <v>1.1879817708311662E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1995</v>
       </c>
@@ -775,8 +835,11 @@
       <c r="D15" s="3">
         <v>1.0579339176817977E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1995</v>
       </c>
@@ -789,8 +852,11 @@
       <c r="D16" s="3">
         <v>9.6819781986970076E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1995</v>
       </c>
@@ -803,8 +869,11 @@
       <c r="D17" s="3">
         <v>9.3877955911056497E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -817,8 +886,11 @@
       <c r="D18" s="3">
         <v>8.9905866558769188E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1995</v>
       </c>
@@ -831,1520 +903,1967 @@
       <c r="D19" s="3">
         <v>7.9441787045745858E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="3">
-        <v>0.38063300230585212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1999</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3">
-        <v>0.16067552429010476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.38063300230585212</v>
+      </c>
+      <c r="E21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1999</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>0.11131325986571948</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16067552429010476</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1999</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3">
-        <v>7.5101883349075318E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.11131325986571948</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1999</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="3">
-        <v>3.0260316441291107E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7.5101883349075318E-2</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1999</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>2.386355792106018E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3.0260316441291107E-2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1999</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3">
-        <v>1.5446860726959406E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.386355792106018E-2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1999</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>1.2424131948172726E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.5446860726959406E-2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1999</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>1.1595317868137308E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.2424131948172726E-2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1999</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3">
-        <v>9.9957514853789182E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.1595317868137308E-2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1999</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D30" s="3">
-        <v>9.3476531174255702E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.9957514853789182E-3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1999</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3">
-        <v>9.2178827427546375E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.3476531174255702E-3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1999</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3">
-        <v>8.8850845238404707E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.2178827427546375E-3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1999</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="3">
-        <v>8.0373909473609919E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8.8850845238404707E-3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1999</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>7.3037697163583805E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8.0373909473609919E-3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1999</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>7.2721643509143308E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7.3037697163583805E-3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1999</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="1">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D36" s="3">
-        <v>7.1392962318157695E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7.2721643509143308E-3</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1999</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3">
+        <v>7.1392962318157695E-3</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1999</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <v>15</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="3">
         <v>6.9222029534146542E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2005</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>9</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.64140645331034818</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D39" s="3">
-        <v>4.2342791347247936E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3">
-        <v>3.3672230038386819E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.64140645331034818</v>
+      </c>
+      <c r="E40">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2005</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>3.0234660044720234E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.2342791347247936E-2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2005</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="3">
-        <v>2.4305758800332769E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3.3672230038386819E-2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2005</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" s="3">
-        <v>2.3724295050921253E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3.0234660044720234E-2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2005</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="3">
-        <v>2.2646776706054417E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.4305758800332769E-2</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2005</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1">
         <v>15</v>
       </c>
       <c r="D45" s="3">
-        <v>2.0076043222957623E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.3724295050921253E-2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2005</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" s="3">
-        <v>1.823068555930461E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.2646776706054417E-2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2005</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3">
-        <v>1.2194542267992291E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.0076043222957623E-2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2005</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" s="3">
-        <v>9.0555865418326994E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.823068555930461E-2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2005</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="3">
-        <v>8.7302684852671383E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.2194542267992291E-2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2005</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" s="3">
-        <v>8.7219350940117308E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.0555865418326994E-3</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2005</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>8.7302684852671383E-3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2005</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8.7219350940117308E-3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2005</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
         <v>8.1598435539117619E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>2007</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1">
-        <v>9</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0.68160307926605868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>2007</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
-      <c r="D53" s="3">
-        <v>4.0464909736940238E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D54" s="3">
-        <v>2.6922880361315637E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2007</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="3">
-        <v>2.241543383965082E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.68160307926605868</v>
+      </c>
+      <c r="E55">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2007</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1">
         <v>5</v>
       </c>
-      <c r="C56" s="1">
-        <v>13</v>
-      </c>
       <c r="D56" s="3">
-        <v>1.9580498500993762E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.0464909736940238E-2</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2007</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2.6922880361315637E-2</v>
+      </c>
+      <c r="E57">
         <v>3</v>
       </c>
-      <c r="C57" s="1">
-        <v>4</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1.7964598545749621E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2007</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D58" s="3">
-        <v>1.4368137768351701E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.241543383965082E-2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2007</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D59" s="3">
-        <v>1.2354831955746741E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.9580498500993762E-2</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2007</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D60" s="3">
-        <v>1.015364262422001E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.7964598545749621E-2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2007</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" s="3">
-        <v>8.2291811970321097E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.4368137768351701E-2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2007</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D62" s="3">
-        <v>7.1744318330902663E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.2354831955746741E-2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2007</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D63" s="3">
-        <v>6.7176519058812457E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.015364262422001E-2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2007</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" s="3">
-        <v>6.5716328809893353E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8.2291811970321097E-3</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D65" s="3">
-        <v>6.3891254380814182E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7.1744318330902663E-3</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2007</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>6.2908837263016782E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6.7176519058812457E-3</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2007</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" s="3">
-        <v>6.2041813311043154E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6.5716328809893353E-3</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2007</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C68" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>5.5713373688359722E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6.3891254380814182E-3</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2007</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3">
+        <v>6.2908837263016782E-3</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2007</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="3">
+        <v>6.2041813311043154E-3</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2007</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5.5713373688359722E-3</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2007</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
         <v>5.561218084215498E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>2014</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="1">
-        <v>9</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0.60762744029089855</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>2014</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2</v>
-      </c>
-      <c r="D71" s="3">
-        <v>5.8673820456657297E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>2014</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="1">
-        <v>4</v>
-      </c>
-      <c r="D72" s="3">
-        <v>4.3576759386555981E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D73" s="3">
-        <v>1.7483402739632399E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2014</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D74" s="3">
-        <v>1.7132241604953281E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.60762744029089855</v>
+      </c>
+      <c r="E74">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2014</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" s="3">
-        <v>1.4157851679058895E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5.8673820456657297E-2</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2014</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C76" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D76" s="3">
-        <v>1.3634843981279045E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.3576759386555981E-2</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2014</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="3">
-        <v>1.2760589088697035E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.7483402739632399E-2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2014</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C78" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D78" s="3">
-        <v>1.2481256160672605E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.7132241604953281E-2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2014</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C79" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D79" s="3">
-        <v>1.1940883138802432E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.4157851679058895E-2</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2014</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C80" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D80" s="3">
-        <v>1.1920928291905098E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.3634843981279045E-2</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2014</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D81" s="3">
-        <v>1.1884941233473523E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.2760589088697035E-2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2014</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D82" s="3">
-        <v>1.1369781596944543E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.2481256160672605E-2</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2014</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D83" s="3">
-        <v>9.4417964601174794E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.1940883138802432E-2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2014</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84" s="3">
-        <v>8.8290335194074355E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.1920928291905098E-2</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2014</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" s="3">
-        <v>8.6037756685485699E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.1884941233473523E-2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2014</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C86" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D86" s="3">
-        <v>9.297257424283811E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.1369781596944543E-2</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2014</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C87" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" s="3">
-        <v>7.8872961462532771E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.4417964601174794E-3</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2014</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="3">
+        <v>8.8290335194074355E-3</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2014</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3">
+        <v>8.6037756685485699E-3</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2014</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4</v>
+      </c>
+      <c r="D90" s="3">
+        <v>9.297257424283811E-3</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2014</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="3">
+        <v>7.8872961462532771E-3</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2014</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3">
         <v>7.5815434247390916E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>2018</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="1">
-        <v>9</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0.53390037529111378</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>2018</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="1">
-        <v>4</v>
-      </c>
-      <c r="D90" s="3">
-        <v>5.8850013011968766E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>2018</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="1">
-        <v>2</v>
-      </c>
-      <c r="D91" s="3">
-        <v>3.9716520500064946E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>2018</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1</v>
-      </c>
-      <c r="D92" s="3">
-        <v>3.7736588285507328E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C93" s="1">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D93" s="3">
-        <v>3.481293797194953E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2018</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1">
-        <v>22</v>
-      </c>
-      <c r="D94" s="3">
-        <v>2.8622070444838898E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0.533900375291114</v>
+      </c>
+      <c r="E94">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2018</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1">
-        <v>14</v>
-      </c>
-      <c r="D95" s="3">
-        <v>2.4085165987022691E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="D95" s="5">
+        <v>5.8850013011968801E-2</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2018</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1">
-        <v>4</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1.7627796173112584E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="D96" s="5">
+        <v>3.9716520500064897E-2</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2018</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C97" s="1">
-        <v>2</v>
-      </c>
-      <c r="D97" s="3">
-        <v>1.654529811453816E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5">
+        <v>3.7736588285507328E-2</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2018</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C98" s="1">
-        <v>4</v>
-      </c>
-      <c r="D98" s="3">
-        <v>1.5670133229274543E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="D98" s="5">
+        <v>3.481293797194953E-2</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2018</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
-      </c>
-      <c r="D99" s="3">
-        <v>1.5166574607000504E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="D99" s="5">
+        <v>2.8622070444838898E-2</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2018</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C100" s="1">
-        <v>27</v>
-      </c>
-      <c r="D100" s="3">
-        <v>1.4659473846230264E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="D100" s="5">
+        <v>2.4085165987022691E-2</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2018</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C101" s="1">
-        <v>15</v>
-      </c>
-      <c r="D101" s="3">
-        <v>1.4107393060092359E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1.7627796173112584E-2</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2018</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C102" s="1">
-        <v>4</v>
-      </c>
-      <c r="D102" s="3">
-        <v>1.0349204649762123E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1.654529811453816E-2</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2018</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C103" s="1">
-        <v>2</v>
-      </c>
-      <c r="D103" s="3">
-        <v>9.4086385406701514E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1.5670133229274543E-2</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2018</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C104" s="1">
-        <v>13</v>
-      </c>
-      <c r="D104" s="3">
-        <v>9.3873343743524369E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1.5166574607000504E-2</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2018</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C105" s="1">
-        <v>2</v>
-      </c>
-      <c r="D105" s="3">
-        <v>9.0370938800892076E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1.4659473846230264E-2</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2018</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="1">
+        <v>15</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1.4107393060092359E-2</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2018</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1.0349204649762123E-2</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2018</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="5">
+        <v>9.4086385406701514E-3</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2018</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1">
+        <v>13</v>
+      </c>
+      <c r="D109" s="5">
+        <v>9.3873343743524369E-3</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2018</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" s="5">
+        <v>9.0370938800892076E-3</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2018</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C106" s="1">
-        <v>4</v>
-      </c>
-      <c r="D106" s="3">
+      <c r="C111" s="1">
+        <v>4</v>
+      </c>
+      <c r="D111" s="5">
         <v>8.6242756057264731E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>2020</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="1">
-        <v>9</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0.39046613554272191</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>2020</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-      <c r="D108" s="3">
-        <v>8.06163909919871E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>2020</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C109" s="1">
-        <v>15</v>
-      </c>
-      <c r="D109" s="3">
-        <v>4.6442856106880336E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>2020</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="1">
-        <v>4</v>
-      </c>
-      <c r="D110" s="3">
-        <v>4.589484116436169E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>2020</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="1">
-        <v>2</v>
-      </c>
-      <c r="D111" s="3">
-        <v>4.1076620676834957E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112" s="1">
-        <v>14</v>
-      </c>
-      <c r="D112" s="3">
-        <v>3.1622616304025242E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2020</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C113" s="1">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D113" s="3">
-        <v>2.5024577784392842E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.39046613554272191</v>
+      </c>
+      <c r="E113">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2020</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" s="3">
-        <v>2.4978674827253831E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8.06163909919871E-2</v>
+      </c>
+      <c r="E114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2020</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C115" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" s="3">
-        <v>2.4362386149086861E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.6442856106880336E-2</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2020</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C116" s="1">
         <v>4</v>
       </c>
       <c r="D116" s="3">
-        <v>2.1540294466087427E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.589484116436169E-2</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2020</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C117" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D117" s="3">
-        <v>2.1270047719027445E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.1076620676834957E-2</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2020</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" s="1">
         <v>14</v>
       </c>
-      <c r="C118" s="1">
-        <v>5</v>
-      </c>
       <c r="D118" s="3">
-        <v>2.0180405534652272E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3.1622616304025242E-2</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2020</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C119" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D119" s="3">
-        <v>1.9672320634367808E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.5024577784392842E-2</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2020</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C120" s="1">
         <v>2</v>
       </c>
       <c r="D120" s="3">
-        <v>1.7730680852155217E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.4978674827253831E-2</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2020</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C121" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D121" s="3">
-        <v>1.7475048389943407E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.4362386149086861E-2</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2020</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C122" s="1">
         <v>4</v>
       </c>
       <c r="D122" s="3">
-        <v>1.5797170870785318E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.1540294466087427E-2</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2020</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D123" s="3">
-        <v>1.3219387998823945E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.1270047719027445E-2</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2020</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C124" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D124" s="3">
-        <v>1.0821539188370735E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.0180405534652272E-2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2020</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C125" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D125" s="3">
-        <v>1.0010342682857783E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.9672320634367808E-2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2020</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C126" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D126" s="3">
-        <v>9.6935708000228677E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.7730680852155217E-2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2020</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="1">
+        <v>27</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1.7475048389943407E-2</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2020</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="1">
+        <v>4</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1.5797170870785318E-2</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2020</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1.3219387998823945E-2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2020</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1.0821539188370735E-2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2020</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1.0010342682857783E-2</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2020</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="1">
         <v>5</v>
       </c>
-      <c r="C127" s="1">
+      <c r="D132" s="3">
+        <v>9.6935708000228677E-3</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2020</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1">
         <v>13</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D133" s="3">
         <v>9.4642081024388092E-3</v>
       </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2020</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D134" xr:uid="{E4E2FF15-ADD0-0D42-80F4-A8A9D2EA48D1}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>